--- a/CWD 2669-2768.xlsx
+++ b/CWD 2669-2768.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="DanhSachThe" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DanhSachThe!#REF!</definedName>
@@ -1081,7 +1080,7 @@
   <dimension ref="A1:J105"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -2854,16 +2853,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>